--- a/Data/vids 421/trackingSheet.xlsx
+++ b/Data/vids 421/trackingSheet.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_1806\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b0b84a9b3242542/Sensing_Sytems/somnia/Data/vids 421/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{26BBE3D2-5D20-42BA-8D5E-EF0A8FB0CAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -884,14 +894,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -928,7 +944,7 @@
         <v>1586939742169</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -939,7 +955,7 @@
         <v>1586916190797</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>416</v>
       </c>
@@ -950,7 +966,7 @@
         <v>1587028916380</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>417</v>
       </c>
@@ -961,7 +977,7 @@
         <v>1587115911544</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>418</v>
       </c>
@@ -972,7 +988,7 @@
         <v>1587193574168</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>419</v>
       </c>
@@ -983,7 +999,7 @@
         <v>1587285953475</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>420</v>
       </c>
@@ -994,7 +1010,7 @@
         <v>1587368475096</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>421</v>
       </c>
